--- a/Design/Excel/GameHot/Datas/Game/Entity.xlsx
+++ b/Design/Excel/GameHot/Datas/Game/Entity.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>string&amp;group=ge</t>
+  </si>
+  <si>
+    <t>string#path=normal;Entity/*.prefab</t>
   </si>
   <si>
     <t>string</t>
@@ -1152,7 +1155,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1161,7 +1164,7 @@
     <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.8181818181818" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7545454545455" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.1272727272727" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.87272727272727" style="1"/>
@@ -1207,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1215,25 +1218,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1241,16 +1244,16 @@
         <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>90</v>
@@ -1261,16 +1264,16 @@
         <v>10001</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>80</v>
@@ -1281,16 +1284,16 @@
         <v>20000</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>90</v>
@@ -1301,16 +1304,16 @@
         <v>20001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>80</v>
@@ -1321,16 +1324,16 @@
         <v>30000</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>30</v>
@@ -1341,16 +1344,16 @@
         <v>40000</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>30</v>
@@ -1361,16 +1364,16 @@
         <v>50000</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>80</v>
@@ -1381,16 +1384,16 @@
         <v>50001</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="1">
         <v>80</v>
@@ -1401,16 +1404,16 @@
         <v>60000</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1">
         <v>80</v>
@@ -1421,16 +1424,16 @@
         <v>60001</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>80</v>
@@ -1441,16 +1444,16 @@
         <v>60002</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1">
         <v>80</v>
@@ -1461,16 +1464,16 @@
         <v>70000</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1">
         <v>80</v>
@@ -1481,16 +1484,16 @@
         <v>70001</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G16" s="1">
         <v>80</v>
@@ -1501,16 +1504,16 @@
         <v>70002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1">
         <v>80</v>
